--- a/教科一覧.xlsx
+++ b/教科一覧.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Desktop/KyouikuHackathon/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC8ADEB-4A6E-AE42-86DC-542160019141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCC92D9-FB6E-8D48-9983-EF162A1703F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
-    <t>教科</t>
-  </si>
-  <si>
     <t>英語</t>
   </si>
   <si>
@@ -111,6 +108,13 @@
   </si>
   <si>
     <t>その他</t>
+  </si>
+  <si>
+    <t>教科名</t>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -497,139 +501,139 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
